--- a/Figures-Tables-Manuscript/Manuscript/T5_LOADINGS-MECHANICAL.xlsx
+++ b/Figures-Tables-Manuscript/Manuscript/T5_LOADINGS-MECHANICAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynreahl/Documents/BergmannLab_2018-2020/Reahl_2020/Figures-Tables-Manuscript/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE890007-25AF-6242-BDE4-3B22331A34C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A2BFE4-7B3A-E443-AA63-CC6F657CF5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="920" windowWidth="16840" windowHeight="13860" xr2:uid="{6948B90D-A263-B446-996B-B4A564422571}"/>
+    <workbookView xWindow="160" yWindow="440" windowWidth="16840" windowHeight="13860" xr2:uid="{6948B90D-A263-B446-996B-B4A564422571}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>cf</t>
   </si>
   <si>
-    <t>Table [LOADINGS-MECHANICAL]. Ranked loadings and squared loadings of microtextures from the mechanical PCA ordination (Figure [PCA-MECHANICAL]). The microtextures in bold have squared loadings that are greater than the expected value of their associated principal component according to the broken-stick criterion (Frontier 1976; Jackson 1993; Legendre and Legendre 1998; Peres-Neto et al. 2003).</t>
-  </si>
-  <si>
     <r>
       <t>Loading</t>
     </r>
@@ -102,6 +99,9 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>Table 5. Ranked loadings and squared loadings of microtextures from the mechanical PCA ordination (Fig. 9). Refer to Figure 3A and B for microtexture abbreviations. The microtextures in bold have squared loadings that are greater than the expected value of their associated principal component according to the broken-stick criterion (Frontier 1976; Jackson 1993; Legendre and Legendre 1998; Peres-Neto et al. 2003).</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,67 +289,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,528 +663,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B988E6C-9650-644E-8D68-61E7CE2056F7}">
-  <dimension ref="B1:K26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="10" width="8.5" customWidth="1"/>
+    <col min="1" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="2:11" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="26" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18">
         <v>0.27453430000000001</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22">
+      <c r="E8" s="17"/>
+      <c r="F8" s="18">
         <v>0.18362521000000001</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4">
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
         <v>0.13817067</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="F9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="2:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="23">
+      <c r="B10" s="19">
         <v>0.39957999999999999</v>
       </c>
-      <c r="D10" s="24">
-        <f>C10^2</f>
+      <c r="C10" s="20">
+        <f>B10^2</f>
         <v>0.1596641764</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="30">
+      <c r="E10" s="25">
         <v>0.45962399999999998</v>
       </c>
-      <c r="G10" s="31">
-        <f>F10^2</f>
+      <c r="F10" s="26">
+        <f>E10^2</f>
         <v>0.21125422137599997</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="H10" s="8">
+        <v>0.47571400000000003</v>
+      </c>
       <c r="I10" s="8">
-        <v>0.47571400000000003</v>
-      </c>
-      <c r="J10" s="8">
-        <f>I10^2</f>
+        <f>H10^2</f>
         <v>0.22630380979600004</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="23">
+      <c r="B11" s="19">
         <v>0.22795199999999999</v>
       </c>
-      <c r="D11" s="24">
-        <f t="shared" ref="D11:D19" si="0">C11^2</f>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:C19" si="0">B11^2</f>
         <v>5.1962114303999996E-2</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="23">
+      <c r="E11" s="19">
         <v>0.27119500000000002</v>
       </c>
-      <c r="G11" s="24">
-        <f t="shared" ref="G11:G20" si="1">F11^2</f>
+      <c r="F11" s="20">
+        <f t="shared" ref="F11:F20" si="1">E11^2</f>
         <v>7.3546728025000008E-2</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="H11" s="8">
+        <v>0.44592100000000001</v>
+      </c>
       <c r="I11" s="8">
-        <v>0.44592100000000001</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" ref="J11:J20" si="2">I11^2</f>
+        <f t="shared" ref="I11:I20" si="2">H11^2</f>
         <v>0.19884553824100001</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="23">
+      <c r="B12" s="19">
         <v>9.3182000000000001E-2</v>
       </c>
-      <c r="D12" s="24">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>8.6828851240000008E-3</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="23">
+      <c r="E12" s="19">
         <v>0.231212</v>
       </c>
-      <c r="G12" s="24">
+      <c r="F12" s="20">
         <f t="shared" si="1"/>
         <v>5.3458988944000002E-2</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H12" s="6">
+        <v>0.33813500000000002</v>
+      </c>
       <c r="I12" s="6">
-        <v>0.33813500000000002</v>
-      </c>
-      <c r="J12" s="6">
         <f t="shared" si="2"/>
         <v>0.11433527822500002</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="23">
+      <c r="B13" s="19">
         <v>1.3960000000000001E-3</v>
       </c>
-      <c r="D13" s="24">
-        <f>C13^2</f>
+      <c r="C13" s="20">
+        <f>B13^2</f>
         <v>1.9488160000000003E-6</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="23">
+      <c r="E13" s="19">
         <v>0.228656</v>
       </c>
-      <c r="G13" s="24">
+      <c r="F13" s="20">
         <f t="shared" si="1"/>
         <v>5.2283566336000002E-2</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="H13" s="6">
+        <v>0.25847300000000001</v>
+      </c>
       <c r="I13" s="6">
-        <v>0.25847300000000001</v>
-      </c>
-      <c r="J13" s="6">
         <f t="shared" si="2"/>
         <v>6.6808291729000005E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="23">
+      <c r="B14" s="19">
         <v>-8.0968999999999999E-2</v>
       </c>
-      <c r="D14" s="24">
-        <f>C14^2</f>
+      <c r="C14" s="20">
+        <f>B14^2</f>
         <v>6.5559789609999997E-3</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="23">
+      <c r="E14" s="19">
         <v>0.17951400000000001</v>
       </c>
-      <c r="G14" s="24">
+      <c r="F14" s="20">
         <f t="shared" si="1"/>
         <v>3.2225276196000005E-2</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="H14" s="6">
+        <v>0.19204299999999999</v>
+      </c>
       <c r="I14" s="6">
-        <v>0.19204299999999999</v>
-      </c>
-      <c r="J14" s="6">
         <f t="shared" si="2"/>
         <v>3.6880513848999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="23">
+      <c r="B15" s="19">
         <v>-0.192881</v>
       </c>
-      <c r="D15" s="24">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>3.7203080160999998E-2</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="23">
+      <c r="E15" s="19">
         <v>0.119307</v>
       </c>
-      <c r="G15" s="24">
+      <c r="F15" s="20">
         <f t="shared" si="1"/>
         <v>1.4234160248999999E-2</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H15" s="6">
+        <v>-4.921E-3</v>
+      </c>
       <c r="I15" s="6">
-        <v>-4.921E-3</v>
-      </c>
-      <c r="J15" s="6">
         <f t="shared" si="2"/>
         <v>2.4216240999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23">
+      <c r="B16" s="19">
         <v>-0.28926299999999999</v>
       </c>
-      <c r="D16" s="24">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>8.367308316899999E-2</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="23">
+      <c r="E16" s="19">
         <v>3.9953000000000002E-2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="F16" s="20">
         <f t="shared" si="1"/>
         <v>1.5962422090000001E-3</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="H16" s="6">
+        <v>-5.6520000000000001E-2</v>
+      </c>
       <c r="I16" s="6">
-        <v>-5.6520000000000001E-2</v>
-      </c>
-      <c r="J16" s="6">
         <f t="shared" si="2"/>
         <v>3.1945103999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23">
+      <c r="B17" s="19">
         <v>-0.36713600000000002</v>
       </c>
-      <c r="D17" s="24">
+      <c r="C17" s="20">
         <f t="shared" si="0"/>
         <v>0.13478884249600001</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="23">
+      <c r="E17" s="19">
         <v>-4.1009999999999998E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="F17" s="20">
         <f t="shared" si="1"/>
         <v>1.6818200999999999E-3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="H17" s="6">
+        <v>-0.18981600000000001</v>
+      </c>
       <c r="I17" s="6">
-        <v>-0.18981600000000001</v>
-      </c>
-      <c r="J17" s="6">
         <f t="shared" si="2"/>
         <v>3.6030113856000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="23">
+      <c r="B18" s="19">
         <v>-0.38093300000000002</v>
       </c>
-      <c r="D18" s="24">
+      <c r="C18" s="20">
         <f t="shared" si="0"/>
         <v>0.14510995048900002</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="23">
+      <c r="E18" s="19">
         <v>-0.28163100000000002</v>
       </c>
-      <c r="G18" s="24">
+      <c r="F18" s="20">
         <f t="shared" si="1"/>
         <v>7.9316020161000006E-2</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H18" s="6">
+        <v>-0.19520199999999999</v>
+      </c>
       <c r="I18" s="6">
-        <v>-0.19520199999999999</v>
-      </c>
-      <c r="J18" s="6">
         <f t="shared" si="2"/>
         <v>3.8103820803999995E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="23">
+      <c r="B19" s="19">
         <v>-0.41308099999999998</v>
       </c>
-      <c r="D19" s="24">
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>0.17063591256099997</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="23">
+      <c r="E19" s="19">
         <v>-0.37008400000000002</v>
       </c>
-      <c r="G19" s="24">
+      <c r="F19" s="20">
         <f t="shared" si="1"/>
         <v>0.13696216705600001</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H19" s="6">
+        <v>-0.26459100000000002</v>
+      </c>
       <c r="I19" s="6">
-        <v>-0.26459100000000002</v>
-      </c>
-      <c r="J19" s="6">
         <f t="shared" si="2"/>
         <v>7.0008397281000015E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9">
+      <c r="B20" s="9">
         <v>-0.44913599999999998</v>
       </c>
-      <c r="D20" s="25">
-        <f>C20^2</f>
+      <c r="C20" s="21">
+        <f>B20^2</f>
         <v>0.20172314649599998</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="D20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="11">
+      <c r="E20" s="11">
         <v>-0.58603799999999995</v>
       </c>
-      <c r="G20" s="34">
+      <c r="F20" s="29">
         <f t="shared" si="1"/>
         <v>0.34344053744399994</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="H20" s="11">
+        <v>-0.45761499999999999</v>
+      </c>
       <c r="I20" s="11">
-        <v>-0.45761499999999999</v>
-      </c>
-      <c r="J20" s="11">
         <f t="shared" si="2"/>
         <v>0.209411488225</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:9" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B1:J5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A1:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>